--- a/gfg.xlsx
+++ b/gfg.xlsx
@@ -15,17 +15,17 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Arkusz1!$A$5:$B$5</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Arkusz1!$A$16:$B$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$K$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$K$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$K$7</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$K$8</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Arkusz1!$K$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$K$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$K$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$K$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Arkusz1!$K$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -33,22 +33,22 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Arkusz1!$E$5</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Arkusz1!$E$16</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$J$5</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$J$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$J$7</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$J$8</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Arkusz1!$J$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$J$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$J$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$J$18</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$J$19</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Arkusz1!$J$19</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -57,7 +57,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>zad 6.2</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>&gt;=</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,6 +208,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -482,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +672,173 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <f>SUMPRODUCT(A16:B16,A18:B18)</f>
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <f>SUMPRODUCT($A$16:$B$16,G16:H16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17:K20" si="1">SUMPRODUCT($A$16:$B$16,G17:H17)</f>
+        <v>3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gfg.xlsx
+++ b/gfg.xlsx
@@ -15,16 +15,16 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Arkusz1!$A$16:$B$16</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Arkusz1!$A$26:$B$26</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$K$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$K$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$K$18</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$M$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$M$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$M$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$M$29</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Arkusz1!$K$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -33,21 +33,21 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Arkusz1!$E$16</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Arkusz1!$E$26</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$J$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$J$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$J$18</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$J$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$L$26</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$L$27</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$L$28</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$L$29</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Arkusz1!$J$19</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>zad 6.2</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>zad 6.3</t>
+  </si>
+  <si>
+    <t>x- ilosc farby I</t>
+  </si>
+  <si>
+    <t>y- ilosc farby II</t>
+  </si>
+  <si>
+    <t>lepkość</t>
+  </si>
+  <si>
+    <t>Y(połysk)</t>
+  </si>
+  <si>
+    <t>Z(trwałość)</t>
+  </si>
+  <si>
+    <t>x+y=1</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -172,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,11 +219,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,6 +255,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -489,15 +539,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -666,11 +718,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -745,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +824,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -796,7 +848,7 @@
         <v>6.5000000000000018</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G19" s="1">
         <v>1</v>
       </c>
@@ -814,30 +866,230 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
         <f t="shared" si="1"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <f>SUMPRODUCT(A26:B26,A28:B28)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1">
+        <v>400</v>
+      </c>
+      <c r="J26" s="1">
+        <v>100</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="1">
+        <v>200</v>
+      </c>
+      <c r="M26" s="1">
+        <f>SUMPRODUCT($A$26:$B$26,I26:J26)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1">
+        <v>14</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M31" si="2">SUMPRODUCT($A$26:$B$26,I27:J27)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1">
+        <v>60</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="1">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>44.000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfg.xlsx
+++ b/gfg.xlsx
@@ -21,12 +21,12 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$M$26</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$M$27</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$M$28</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$M$29</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Arkusz1!$K$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Arkusz1!$L$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Arkusz1!$L$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Arkusz1!$L$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Arkusz1!$L$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Arkusz1!$L$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Arkusz1!$L$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -44,11 +44,11 @@
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$L$26</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$L$27</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$L$28</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$L$29</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Arkusz1!$J$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Arkusz1!$K$26</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Arkusz1!$K$27</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Arkusz1!$K$28</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Arkusz1!$K$29</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Arkusz1!$K$19</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>zad 6.2</t>
   </si>
@@ -139,12 +139,6 @@
     <t>zad 6.3</t>
   </si>
   <si>
-    <t>x- ilosc farby I</t>
-  </si>
-  <si>
-    <t>y- ilosc farby II</t>
-  </si>
-  <si>
     <t>lepkość</t>
   </si>
   <si>
@@ -158,6 +152,15 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Minimalny koszt farby wynosi 4,8$. Należy zmieszać 0,4 galona farby I oraz 0,6 galona farby II.</t>
+  </si>
+  <si>
+    <t>y- ilość farby II</t>
+  </si>
+  <si>
+    <t>x- ilość farby I</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,6 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -539,9 +550,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -552,28 +563,28 @@
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -583,23 +594,23 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -613,24 +624,24 @@
         <f>SUMPRODUCT(A5:B5,A7:B7)</f>
         <v>19</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
       <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="1">
-        <f>SUMPRODUCT($A$5:$B$5,G5:H5)</f>
+      <c r="L5" s="11">
+        <f>SUMPRODUCT($A$5:$B$5,H5:I5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,107 +651,107 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
       <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K9" si="0">SUMPRODUCT($A$5:$B$5,G6:H6)</f>
+      <c r="L6" s="11">
+        <f t="shared" ref="L6:L9" si="0">SUMPRODUCT($A$5:$B$5,H6:I6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
       <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>8</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
       <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="8"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -750,23 +761,23 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2.0000000000000004</v>
       </c>
@@ -780,24 +791,24 @@
         <f>SUMPRODUCT(A16:B16,A18:B18)</f>
         <v>45</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
       <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="1">
-        <f>SUMPRODUCT($A$16:$B$16,G16:H16)</f>
+      <c r="L16" s="11">
+        <f>SUMPRODUCT($A$16:$B$16,H16:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -807,107 +818,107 @@
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
       <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>4</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" ref="K17:K20" si="1">SUMPRODUCT($A$16:$B$16,G17:H17)</f>
+      <c r="L17" s="11">
+        <f t="shared" ref="L17:L20" si="1">SUMPRODUCT($A$16:$B$16,H17:I17)</f>
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>42</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>3</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="11">
         <f t="shared" si="1"/>
         <v>6.5000000000000018</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
       <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
       <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
         <f t="shared" si="1"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="9"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -917,23 +928,23 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.39999999999999997</v>
       </c>
@@ -947,27 +958,27 @@
         <f>SUMPRODUCT(A26:B26,A28:B28)</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H26" t="s">
-        <v>24</v>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>400</v>
       </c>
       <c r="I26" s="1">
-        <v>400</v>
-      </c>
-      <c r="J26" s="1">
         <v>100</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="1">
+      <c r="K26" s="1">
         <v>200</v>
       </c>
-      <c r="M26" s="1">
-        <f>SUMPRODUCT($A$26:$B$26,I26:J26)</f>
+      <c r="L26" s="11">
+        <f>SUMPRODUCT($A$26:$B$26,H26:I26)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -977,118 +988,121 @@
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
-        <v>25</v>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1">
+        <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1">
         <v>10</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="1">
+      <c r="K27" s="1">
         <v>14</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" ref="M27:M31" si="2">SUMPRODUCT($A$26:$B$26,I27:J27)</f>
+      <c r="L27" s="11">
+        <f t="shared" ref="L27:L31" si="2">SUMPRODUCT($A$26:$B$26,H27:I27)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
       </c>
-      <c r="H28" t="s">
-        <v>26</v>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1">
         <v>60</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="1">
+      <c r="K28" s="1">
         <v>30</v>
       </c>
-      <c r="M28" s="1">
+      <c r="L28" s="11">
         <f t="shared" si="2"/>
         <v>44.000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
-        <v>27</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
       <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
         <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
       <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <v>1</v>
-      </c>
-      <c r="K31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
